--- a/2. Descuentos/Color/03. Color - DIC 02 al DIC 15.xlsx
+++ b/2. Descuentos/Color/03. Color - DIC 02 al DIC 15.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Identificador</t>
   </si>
@@ -41,13 +41,13 @@
     <t xml:space="preserve">Ayuda</t>
   </si>
   <si>
-    <t xml:space="preserve">15/12/2024 17:49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nataly Caro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adriana junca</t>
+    <t xml:space="preserve">26/12/2024 09:21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olga Arango</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carolina Espitia</t>
   </si>
   <si>
     <t xml:space="preserve">Baño de color (Enjuague o Matiz de Color) - Desde</t>
@@ -56,91 +56,25 @@
     <t xml:space="preserve">Colorimetria</t>
   </si>
   <si>
+    <t xml:space="preserve">23/12/2024 12:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liliana Perlaza</t>
+  </si>
+  <si>
     <t xml:space="preserve">Retoque Raiz tinte (desde)</t>
   </si>
   <si>
-    <t xml:space="preserve">14/12/2024 16:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Elvis Molina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lilibeth Payares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mechon  desde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 14:32</t>
+    <t xml:space="preserve">16/12/2024 17:44</t>
   </si>
   <si>
     <t xml:space="preserve">Beto Garcia</t>
   </si>
   <si>
-    <t xml:space="preserve">Silvia Juliana Sanchez Gamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Balayage Previa Valoracion &amp; Diagnostico (desde)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">14/12/2024 12:19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Olga Arango</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nancy Gamba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 17:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vilma Lizaraso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/12/2024 13:24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eva aranguren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 17:52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Danys Rodriguez</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iluminaciones de color (Desde)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12/12/2024 16:02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shirley Comfar *Francy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplicación de tinte traída por el cliente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10/12/2024 15:22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liliana Perlaza</t>
-  </si>
-  <si>
-    <t xml:space="preserve">07/12/2024 18:23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brigette Bing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Base Global Tinte (desde)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">04/12/2024 19:28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ana Maria Casas Robayo</t>
+    <t xml:space="preserve">paola escobar Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contouring (desde)</t>
   </si>
 </sst>
 </file>
@@ -493,8 +427,8 @@
     <col min="1" max="1" width="13.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="18.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="28.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="52.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="22.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="50.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="6.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="12.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="8.71" hidden="0" customWidth="1"/>
@@ -532,7 +466,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35992490</v>
+        <v>36419987</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
@@ -547,361 +481,69 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>170000</v>
+        <v>160000</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="H2" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I2"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35992490</v>
+        <v>36338988</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>450000</v>
+        <v>165000</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>158539</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="I3"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>35992490</v>
+        <v>36034603</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F4" t="n">
-        <v>165000</v>
+        <v>160000</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>35970416</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="2" t="n">
-        <v>14242</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>35968621</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="n">
-        <v>400000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>60951</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>35973557</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n">
-        <v>380000</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>52340</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35935166</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="n">
-        <v>450000</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>56621</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>35908072</v>
-      </c>
-      <c r="B9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" t="n">
-        <v>170000</v>
-      </c>
-      <c r="G9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>11454</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>35875163</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" t="n">
-        <v>350000</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>27764</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>35871132</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" t="n">
-        <v>90000</v>
-      </c>
-      <c r="G11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>4500</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>35767734</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="n">
-        <v>165000</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>49696</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>35689160</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="n">
-        <v>85000</v>
-      </c>
-      <c r="G13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>27578</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>35542344</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" t="n">
-        <v>90000</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>4500</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="H4" s="2" t="n">
+        <v>10000</v>
+      </c>
+      <c r="I4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
